--- a/Kaggel Model/Kaggle Notebooks for Threshold.xlsx
+++ b/Kaggel Model/Kaggle Notebooks for Threshold.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wardat/Desktop/PHD work/DeepCNN/Models/Kaggel Model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wardat/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD913217-AFF2-4A41-8429-EEAD784FC2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A717C22-5EBC-264D-802B-EFC3FFD7CA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="142">
   <si>
     <t>https://www.kaggle.com/code/psycon/fruit-image-classification</t>
   </si>
@@ -73,33 +73,12 @@
     <t>https://www.kaggle.com/code/ritesh7355/shape-image-classification-with-accuracy-95-56</t>
   </si>
   <si>
-    <t>https://www.kaggle.com/code/ranjeetjain3/deep-learning-using-sign-langugage/notebook</t>
-  </si>
-  <si>
     <t>Model</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>https://www.kaggle.com/code/sandhyakrishnan02/mnsit-cnn-with-augmentation/notebook</t>
-  </si>
-  <si>
-    <t>https://www.kaggle.com/code/kedarsai/cifar-10-88-accuracy-using-keras/notebook</t>
-  </si>
-  <si>
-    <t>https://www.kaggle.com/code/chandrarajsingh/in-depth-introduction-to-cnn-keras-0-99845/notebook</t>
-  </si>
-  <si>
-    <t>https://www.kaggle.com/code/artemsolomko/digits-recognition-with-keras-cnn-and-dnn-on-tfv1/notebook</t>
-  </si>
-  <si>
-    <t>https://www.kaggle.com/code/jam74001/skin-cancer-smote-algorithm/notebook</t>
-  </si>
-  <si>
-    <t>https://www.kaggle.com/code/nohrud/acc99-chinese-character-mnist-solution-keras/notebook</t>
-  </si>
-  <si>
     <t>Model#1</t>
   </si>
   <si>
@@ -161,6 +140,324 @@
   </si>
   <si>
     <t>Model#20</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/hasibalmuzdadid/chocolate-classification-accuracy-94-3</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/aninditapani/cnn-from-scratch-with-98-accuracy</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/shivank856/gtsrb-cnn-98-test-accuracy</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/krutarthhd/malaria-cell-image-classification-with-cnn-96-acc</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/muhammadimran112233/99-acc-fruits-recognition-using-nn</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/rafetcan/image-classification-using-cnn-fruits</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/karladriandeguzman/99-9-rice-image-classification-using-cnn-in-tf</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/databeru/classify-15-fruits-with-tensorflow-acc-99-6</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/beyzanks/waste-classification-with-cnn</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/quadeer15sh/tf-keras-cnn-99-accuracy</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/michalbrezk/x-ray-pneumonia-cnn-tensorflow-2-0-keras-94</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/sayakdasgupta/sign-language-classification-cnn-99-40-accuracy</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/gpreda/tensorflow-keras-gpu-for-chinese-mnist-prediction</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/therealcyberlord/pneumonia-detection-using-deep-learning</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/holdmykaggle/fire-detection-in-images</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/umutalpaydn/image-classification-with-cnn</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/bryanb/cnn-for-handwritten-letters-classification</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/yehyachali/arabic-mnist-with-detection</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/calebreigada/tensorflow-image-classification-guide</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/yacharki/traffic-signs-image-classification-96-cnn</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/vbookshelf/a-simple-keras-solution</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/mihirpaghdal/intel-image-classification-with-pytorch</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/swetash/fish-classification-from-scratch-cnn</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/kaustubhb999/tomato-leaf-disease-detection-using-cnn</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/omkarsabnis/seedling-classification-using-cnn-v13-0-95</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/soumikrakshit/sign-language-translation-cnn</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/kar0n7/traffic-signal-recognizer-98-accuracy</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/abdelwahed43/arabic-handwritten-digits-recognizer</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/sachinsarkar/traffic-sign-recognition-using-pytorch-and-cnn</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/venugopalvasarla/using-basic-cnn-for-natural-image-classification</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/mattop/panda-or-bear-cnn-image-classification</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/amidala/cnn-for-handwritten-letters-classification</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/naveenc131/cnn-with-accuracy-of-98</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/trolukovich/multi-label-classification-keras</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/tanvikurade/tumor-classification-using-keras</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/lukasmendes/brain-tumor-cnn-98</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/ranjankeshri/fruits-type-prediction-using-deep-learning-cnn</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/alimohammedbakhiet/brain-tumor-image-classification-explain</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/dhuruvapriyan/tamil-character-classification</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/arkalodh/brain-tumor-detection-classification</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/mohamedkamal77/cnn-train-0-99-val-0-98-test-0-986</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/tutenstein/99-8-acc-alzheimer-detection-and-classification</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/genesis16/fingers-cnn-keras</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/lucasar/detection-of-male-female-eyes-convnet-92-acc</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/petersunga/cnn-based-honey-bee-pollen-binary-classifier</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/muhammeddalkran/fruit-360-dataset-with-cnn-in-keras</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/satoru90/rice-image-classification-cnn-with-99-acc</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/ssrihari/keras-cnn-example-98-accuracy</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/ashishpatel26/devnagari-character-recognition-using-keras-cnn-v1</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/miraehab/cnn-fruit-image-classification</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/zeadomar/image-time-classification-with-cnn-95</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/dhruvanurag20/brain-tumor-classification-multi-label-cnn</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/emresancak/fruit-and-vegetable-classification-with-cnn</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/faisalabdullah123/using-cnn-for-image-classification</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/atheeralattar/arabic-digits-recognizer-cnn-0-99-accuracy</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code/okeaditya/aerial-cactus-keras-cnn</t>
+  </si>
+  <si>
+    <t>Model#21</t>
+  </si>
+  <si>
+    <t>Model#22</t>
+  </si>
+  <si>
+    <t>Model#23</t>
+  </si>
+  <si>
+    <t>Model#24</t>
+  </si>
+  <si>
+    <t>Model#25</t>
+  </si>
+  <si>
+    <t>Model#26</t>
+  </si>
+  <si>
+    <t>Model#27</t>
+  </si>
+  <si>
+    <t>Model#28</t>
+  </si>
+  <si>
+    <t>Model#29</t>
+  </si>
+  <si>
+    <t>Model#30</t>
+  </si>
+  <si>
+    <t>Model#31</t>
+  </si>
+  <si>
+    <t>Model#32</t>
+  </si>
+  <si>
+    <t>Model#33</t>
+  </si>
+  <si>
+    <t>Model#34</t>
+  </si>
+  <si>
+    <t>Model#35</t>
+  </si>
+  <si>
+    <t>Model#36</t>
+  </si>
+  <si>
+    <t>Model#37</t>
+  </si>
+  <si>
+    <t>Model#38</t>
+  </si>
+  <si>
+    <t>Model#39</t>
+  </si>
+  <si>
+    <t>Model#40</t>
+  </si>
+  <si>
+    <t>Model#41</t>
+  </si>
+  <si>
+    <t>Model#42</t>
+  </si>
+  <si>
+    <t>Model#43</t>
+  </si>
+  <si>
+    <t>Model#44</t>
+  </si>
+  <si>
+    <t>Model#45</t>
+  </si>
+  <si>
+    <t>Model#46</t>
+  </si>
+  <si>
+    <t>Model#47</t>
+  </si>
+  <si>
+    <t>Model#48</t>
+  </si>
+  <si>
+    <t>Model#49</t>
+  </si>
+  <si>
+    <t>Model#50</t>
+  </si>
+  <si>
+    <t>Model#51</t>
+  </si>
+  <si>
+    <t>Model#52</t>
+  </si>
+  <si>
+    <t>Model#53</t>
+  </si>
+  <si>
+    <t>Model#54</t>
+  </si>
+  <si>
+    <t>Model#55</t>
+  </si>
+  <si>
+    <t>Model#56</t>
+  </si>
+  <si>
+    <t>Model#57</t>
+  </si>
+  <si>
+    <t>Model#58</t>
+  </si>
+  <si>
+    <t>Model#59</t>
+  </si>
+  <si>
+    <t>Model#60</t>
+  </si>
+  <si>
+    <t>Model#61</t>
+  </si>
+  <si>
+    <t>Model#62</t>
+  </si>
+  <si>
+    <t>Model#63</t>
+  </si>
+  <si>
+    <t>Model#64</t>
+  </si>
+  <si>
+    <t>Model#65</t>
+  </si>
+  <si>
+    <t>Model#66</t>
+  </si>
+  <si>
+    <t>Model#67</t>
+  </si>
+  <si>
+    <t>Model#68</t>
+  </si>
+  <si>
+    <t>Model#69</t>
+  </si>
+  <si>
+    <t>Model#70</t>
   </si>
 </sst>
 </file>
@@ -206,7 +503,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -214,29 +511,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -557,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357FE9C2-2163-3A42-85C7-F6927AF6986D}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -573,259 +854,859 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="4">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="4">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="4">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="4">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="4">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="4">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="4">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="4">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="4">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="4">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>2</v>
+      <c r="C11" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="4">
+        <v>25</v>
+      </c>
+      <c r="B12" s="3">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="4">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3">
         <v>12</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>4</v>
+      <c r="C13" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="4">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3">
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>7</v>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="4">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3">
         <v>14</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="4">
+        <v>29</v>
+      </c>
+      <c r="B16" s="3">
         <v>15</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="4">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3">
         <v>16</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>12</v>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="4">
+        <v>32</v>
+      </c>
+      <c r="B18" s="3">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="4">
+        <v>33</v>
+      </c>
+      <c r="B19" s="3">
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="4">
+        <v>34</v>
+      </c>
+      <c r="B20" s="3">
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="3">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="3">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="3">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="3">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="3">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="3">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="3">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="3">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="3">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="3">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="3">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="3">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="3">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="3">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="3">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="3">
+        <v>35</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="3">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="3">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="3">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="3">
+        <v>39</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="3">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="3">
+        <v>41</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="3">
         <v>42</v>
       </c>
-      <c r="B21" s="4">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>1</v>
+      <c r="C43" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="3">
+        <v>43</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="3">
+        <v>44</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="3">
+        <v>45</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="3">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="3">
+        <v>47</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="3">
+        <v>48</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" s="3">
+        <v>49</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="3">
+        <v>50</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="3">
+        <v>51</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" s="3">
+        <v>52</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" s="3">
+        <v>53</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" s="3">
+        <v>54</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" s="3">
+        <v>55</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" s="3">
+        <v>56</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" s="3">
+        <v>57</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" s="3">
+        <v>58</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" s="3">
+        <v>59</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" s="3">
+        <v>60</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="3">
+        <v>61</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" s="3">
+        <v>62</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" s="3">
+        <v>63</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="3">
+        <v>64</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" s="3">
+        <v>65</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" s="3">
+        <v>66</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" s="3">
+        <v>67</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" s="3">
+        <v>68</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" s="3">
+        <v>69</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" s="3">
+        <v>70</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{601AED65-4F2E-1B4D-9C50-4A6A86F0FE88}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{1F6C3A2C-B771-7545-93E8-58B18FB44B04}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{DCD0ED23-ECC4-314E-85A5-CD881629A63E}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{6F73395E-522C-8B4C-8D03-1E90635CA396}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{AED19C62-2F68-DC44-A35D-74907FCA9A48}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{B70D480D-1EE4-D845-A351-4969AC73E641}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{602B07AA-3BAF-6546-AF36-BBB4D61B0814}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{CE5B94BC-BD8E-B848-B79C-F79C0794945E}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{718ECFB8-CAAA-CB4E-8A91-F4758BC08F61}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{0C16B134-DDE8-5A4E-B746-1716D4D508FA}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{BF7B7270-BBE1-904D-8AFC-3A5EFD56FDB0}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{B5E3C0F0-3AA5-7143-AE90-950212A697C8}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{0B38509F-09FF-DE47-9F62-A5959B82C086}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{7F81AE21-2017-6343-9D10-D43D55DAE85B}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{6C673FFC-BC60-A74F-841E-D4BE62540C88}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{42C3C50E-31E1-0D4A-914B-EDD6A1DF2CDE}"/>
-    <hyperlink ref="C18" r:id="rId17" xr:uid="{92374CD6-AAFC-EB49-8955-1CC5FFA07DE6}"/>
-    <hyperlink ref="C20" r:id="rId18" xr:uid="{388BA861-3197-0E45-911C-29A65D96CB5D}"/>
-    <hyperlink ref="C21" r:id="rId19" xr:uid="{B4C79AF9-CF8C-334F-A73B-9023760C6AFC}"/>
-    <hyperlink ref="C19" r:id="rId20" xr:uid="{1BB3055D-4883-4040-B683-990EE0A634D8}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{3A48EB21-8ECC-B042-85F4-FFBD3B3651C4}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{9710920C-28D9-0145-A1AA-E49CD61C44BA}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{58E4C196-8A8A-4B47-9BA0-7FBBC1491869}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{3F6FB735-3064-B548-9845-A2760D1257A3}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{CFD4D9DC-F9A4-4048-865F-45A05B440A9E}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{77AC63FF-2DA2-8446-80D9-458C359DD123}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{F0EC1FFC-1F6C-AF4F-B8D4-0AD8C9B1805F}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{0EE54095-9F5D-F647-A3CF-6BCF37ED5280}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{3425DDC6-5942-0642-8037-1BE40417DB3C}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{06231F3E-1BE4-EE41-8F1A-DA6E2B0AA03E}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{0F946EC5-D4EE-ED4E-9326-56B12C5D41E2}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{069BBFAC-8B3D-E940-AD99-4B71445D4434}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{BA8C3D0E-DB4F-E743-9B17-CD7CF18B44CD}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{8289EED5-2A67-3F4F-8366-489D2EC54EA9}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{A5BB7645-17A8-C84E-88BF-693AE8A02CC0}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{4AE1F7E9-2CD1-6148-926A-DCF19ECD0BDD}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{687A8C43-F57F-DB42-AC04-92322D276133}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{358DF137-9D72-4244-AC15-A509186400AC}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{B73F40B2-5818-A14A-8082-576179094D44}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{7F269192-869A-7340-B01F-A94DF17EA2AC}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{457A4D1F-2A09-A84D-9ECF-37A907B692B0}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{4C06B101-B4E4-BD43-BAB9-B40A161CE663}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{94E4DF9D-20B5-5D44-8F0D-899A172334CC}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{D214A86D-E6D2-094C-B781-4814386D83EE}"/>
+    <hyperlink ref="C26" r:id="rId25" xr:uid="{2B7B279A-8A46-F54E-9AE8-1110AD3455B4}"/>
+    <hyperlink ref="C27" r:id="rId26" xr:uid="{2D04F113-5B74-904A-B403-67644A071794}"/>
+    <hyperlink ref="C28" r:id="rId27" xr:uid="{57095AFA-4320-F941-A689-C82061C5FE08}"/>
+    <hyperlink ref="C29" r:id="rId28" xr:uid="{F3A99D79-684E-4A4C-A938-0AF81A75424C}"/>
+    <hyperlink ref="C30" r:id="rId29" xr:uid="{64CBBA7F-86BC-194F-89F1-A61F85E03DC5}"/>
+    <hyperlink ref="C31" r:id="rId30" xr:uid="{3D34FB4F-A7DA-314C-B09A-875485799678}"/>
+    <hyperlink ref="C32" r:id="rId31" xr:uid="{B32283C2-0391-604B-9A7D-A406D2B4909C}"/>
+    <hyperlink ref="C33" r:id="rId32" xr:uid="{12052EC1-D6FA-4145-9435-C3ED943CB809}"/>
+    <hyperlink ref="C34" r:id="rId33" xr:uid="{EDDE59EE-566E-E649-81FD-06D918154FCD}"/>
+    <hyperlink ref="C35" r:id="rId34" xr:uid="{CEE877F5-DAB5-6343-A07B-D6630F4BBAE1}"/>
+    <hyperlink ref="C36" r:id="rId35" xr:uid="{5A8B0D14-3C13-B24D-8CF5-BA50EDDAB25A}"/>
+    <hyperlink ref="C37" r:id="rId36" xr:uid="{2D910F3B-4E82-5140-90E1-82459F589E90}"/>
+    <hyperlink ref="C38" r:id="rId37" xr:uid="{0F2D4C48-A72E-8F4E-B2CA-614BD3D4EDC9}"/>
+    <hyperlink ref="C39" r:id="rId38" xr:uid="{49F3B0F6-05C2-BA46-A24A-8DC7B217BAAC}"/>
+    <hyperlink ref="C40" r:id="rId39" xr:uid="{6665D864-4DE5-3143-BF66-79B8186215F7}"/>
+    <hyperlink ref="C41" r:id="rId40" xr:uid="{6921FEAA-AD8A-2C42-9CFC-EF2477C37775}"/>
+    <hyperlink ref="C42" r:id="rId41" xr:uid="{5969657B-2DB9-4240-A043-74549E84653B}"/>
+    <hyperlink ref="C43" r:id="rId42" xr:uid="{2B98C203-902E-0C4F-B18D-F7B0161F5A4E}"/>
+    <hyperlink ref="C44" r:id="rId43" xr:uid="{FAE15DFC-CC0A-1840-9E6E-A03E164B717B}"/>
+    <hyperlink ref="C45" r:id="rId44" xr:uid="{DBF8133B-F2CD-A24E-850D-EF906F251AFD}"/>
+    <hyperlink ref="C46" r:id="rId45" xr:uid="{445B131F-4AD9-2647-BDD3-7452FEC6068F}"/>
+    <hyperlink ref="C47" r:id="rId46" xr:uid="{B114F0E8-8B5E-7D46-AF75-0C54641F3CE4}"/>
+    <hyperlink ref="C48" r:id="rId47" xr:uid="{B64C4EE7-6F20-4B49-A946-28665CA1A559}"/>
+    <hyperlink ref="C49" r:id="rId48" xr:uid="{B2FF5D3A-17E9-6F4D-9B7C-AB7AC38D22A5}"/>
+    <hyperlink ref="C50" r:id="rId49" xr:uid="{0E845176-9466-DC44-9C79-CEE3B320D4FC}"/>
+    <hyperlink ref="C51" r:id="rId50" xr:uid="{71E85842-36A3-5D41-B962-B3ADB351222C}"/>
+    <hyperlink ref="C52" r:id="rId51" xr:uid="{15C60CB6-B5F2-214E-8797-C5B2FC3947ED}"/>
+    <hyperlink ref="C53" r:id="rId52" xr:uid="{A074CFDB-CF54-5F4F-BCC3-1E8FC11A4FE5}"/>
+    <hyperlink ref="C54" r:id="rId53" xr:uid="{B446215F-1CC8-A74C-82CB-7059507000C8}"/>
+    <hyperlink ref="C55" r:id="rId54" xr:uid="{7F42F95F-8AC7-164E-88F7-3BB6966652CD}"/>
+    <hyperlink ref="C56" r:id="rId55" xr:uid="{D342B3F6-84E8-B84C-BCF9-2567760853D4}"/>
+    <hyperlink ref="C57" r:id="rId56" xr:uid="{344F2692-C959-FB42-9E91-D4E31B6AFF7B}"/>
+    <hyperlink ref="C58" r:id="rId57" xr:uid="{42415BCB-E9DC-FD49-83F9-241F46C0B295}"/>
+    <hyperlink ref="C59" r:id="rId58" xr:uid="{294C1FB4-8E06-8746-A250-638D944298C6}"/>
+    <hyperlink ref="C60" r:id="rId59" xr:uid="{91D8E7C3-6722-2442-9DA8-2F149B962732}"/>
+    <hyperlink ref="C61" r:id="rId60" xr:uid="{A856A9C7-E262-BB42-B633-189A5201F2B8}"/>
+    <hyperlink ref="C62" r:id="rId61" xr:uid="{F36AC728-7C6F-D648-982E-40103C21EA9D}"/>
+    <hyperlink ref="C63" r:id="rId62" xr:uid="{E8EB1E87-1D19-374F-873C-D1517468DCCD}"/>
+    <hyperlink ref="C64" r:id="rId63" xr:uid="{9CC55BA9-7F30-7A44-B352-FC6D5E294C7C}"/>
+    <hyperlink ref="C65" r:id="rId64" xr:uid="{5229A5A0-DC47-B640-AF87-3744D805E8C1}"/>
+    <hyperlink ref="C66" r:id="rId65" xr:uid="{60DED68D-F63E-5E40-9C97-D6CBD620384D}"/>
+    <hyperlink ref="C67" r:id="rId66" xr:uid="{D7E757B4-DC81-A64C-AA35-C44994FD819C}"/>
+    <hyperlink ref="C68" r:id="rId67" xr:uid="{06D6BC93-8DB6-9849-9B79-DCA75A1E79DD}"/>
+    <hyperlink ref="C69" r:id="rId68" xr:uid="{936479C0-5C07-CE40-8455-15A1FEA382FC}"/>
+    <hyperlink ref="C70" r:id="rId69" xr:uid="{5DD69E08-6EF1-2D49-B03E-412DDA5642D8}"/>
+    <hyperlink ref="C71" r:id="rId70" xr:uid="{2F784D10-5BA0-2D4B-8A1D-5D8FF89D9F26}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
